--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/123/word_level_predictions_123.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/123/word_level_predictions_123.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
